--- a/biology/Zoologie/Fadet_marocain/Fadet_marocain.xlsx
+++ b/biology/Zoologie/Fadet_marocain/Fadet_marocain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha vaucheri
 Le Fadet marocain (Coenonympha vaucheri) est un papillon appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre  Coenonympha.
@@ -512,20 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Coenonympha vaucheri a été décrit en 1905 par l'entomologiste suisse Charles Theodore Blachier (d) (1859-1915)[1],[2].
-Liste des sous-espèces
-Coenonympha vaucheri vaucheri Blachier, 1905 - Haut-Atlas
-Coenonympha vaucheri annoceuri (Wyatt, 1952) - Maroc
-Coenonympha vaucheri beraberensis (Lay &amp; Rose, 1979) - Maroc
-Coenonympha vaucheri rifensis (Weiss, 1979)[1]
-Noms vernaculaires
-Le Fadet marocain se nomme Vaucher's Heath en anglais[1].
-Étymologie
-L'épithète spécifique, vaucheri, lui a été donnée en l'honneur d'« Henri Vaucher de Tanger, qui a capturé cette espèce dans l'Atlas marocain où elle vole en juillet »[2].
-Publication originale
-Ch. Blachier, « Descriptions de Lépidoptères nouveaux du Maroc », Bulletin de la Société entomologique de France, Paris, vol. 10, no 15,‎ 1905, p. 212-215 (ISSN 0037-928X, lire en ligne, consulté le 9 mai 2024).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coenonympha vaucheri a été décrit en 1905 par l'entomologiste suisse Charles Theodore Blachier (d) (1859-1915),.
+</t>
         </is>
       </c>
     </row>
@@ -550,10 +554,161 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Coenonympha vaucheri vaucheri Blachier, 1905 - Haut-Atlas
+Coenonympha vaucheri annoceuri (Wyatt, 1952) - Maroc
+Coenonympha vaucheri beraberensis (Lay &amp; Rose, 1979) - Maroc
+Coenonympha vaucheri rifensis (Weiss, 1979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet marocain se nomme Vaucher's Heath en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, vaucheri, lui a été donnée en l'honneur d'« Henri Vaucher de Tanger, qui a capturé cette espèce dans l'Atlas marocain où elle vole en juillet ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ch. Blachier, « Descriptions de Lépidoptères nouveaux du Maroc », Bulletin de la Société entomologique de France, Paris, vol. 10, no 15,‎ 1905, p. 212-215 (ISSN 0037-928X, lire en ligne, consulté le 9 mai 2024).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fadet marocain est de couleur jaune orangé bordé de marron clair avec un gros ocelle marron aveugle à l'apex, et une ligne d'ocelles aveugles aux postérieures.
 Le revers des antérieures est semblable, jaune orangé  bordé de marron clair avec un gros ocelle géminé noir pupillé de blanc à l'apex. Les postérieures ont une partie basale marron, une bande postmédiane blanc crème irrégulière doublée d'une ligne d'ocelles pupillés de blanc et cernés de jaune.
@@ -563,70 +718,147 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fadet_marocain</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération, entre fin mai et septembre[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille seraient diverses graminées.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération, entre fin mai et septembre.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fadet_marocain</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille seraient diverses graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est uniquement présent en Afrique du Nord au Maroc, dans le Haut Atlas, le Moyen Atlas et les montagnes du Rif[1],[3].
-Biotope
-Il réside sur des pentes herbues.
-Protection</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent en Afrique du Nord au Maroc, dans le Haut Atlas, le Moyen Atlas et les montagnes du Rif,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_marocain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur des pentes herbues.
+</t>
         </is>
       </c>
     </row>
